--- a/javascript/timeCharts.xlsx
+++ b/javascript/timeCharts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\qbeast360\FlatIronSE\Algorithms\find-first-duplicate\javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A881022C-2B8F-4005-8572-1D554039D64F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC036E1D-C89F-4923-84C9-45BC4BFC2640}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26805" yWindow="3030" windowWidth="20580" windowHeight="15435" xr2:uid="{4CB08541-C558-4F53-B449-94E6A11F2F6F}"/>
+    <workbookView xWindow="10800" yWindow="3285" windowWidth="20580" windowHeight="15435" xr2:uid="{4CB08541-C558-4F53-B449-94E6A11F2F6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -368,81 +368,6 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!#REF!</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$11:$H$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4EB1-4573-90A5-A17DB1A22640}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
@@ -639,6 +564,105 @@
         <c:smooth val="0"/>
         <c:axId val="647151400"/>
         <c:axId val="647149104"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$11:$H$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1500</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2500</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3500</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-4EB1-4573-90A5-A17DB1A22640}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="647151400"/>
@@ -1183,81 +1207,6 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!#REF!</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$1:$H$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-20CF-4C73-9C37-CC08EEDCEBA3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
@@ -1549,6 +1498,105 @@
         <c:smooth val="0"/>
         <c:axId val="279577920"/>
         <c:axId val="279578248"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$1:$H$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1500</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2500</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3500</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-20CF-4C73-9C37-CC08EEDCEBA3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="279577920"/>
@@ -2005,81 +2053,6 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!#REF!</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$20:$H$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8B53-4D1B-9DA2-03E2876CC732}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
@@ -2276,6 +2249,105 @@
         <c:smooth val="0"/>
         <c:axId val="637067056"/>
         <c:axId val="550483840"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$20:$H$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1500</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2500</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3500</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-8B53-4D1B-9DA2-03E2876CC732}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="637067056"/>
@@ -4540,8 +4612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913477E8-70A8-4B22-8AB4-5B7C5AC9075D}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4765,7 +4837,7 @@
         <v>0.15125759990513299</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="B12:H15" si="0">C3</f>
+        <f t="shared" ref="C12:H13" si="0">C3</f>
         <v>0.19843720017373501</v>
       </c>
       <c r="D12">
@@ -4831,27 +4903,27 @@
         <v>8.2576600030064506E-2</v>
       </c>
       <c r="C14">
-        <f>C5</f>
+        <f t="shared" ref="C14:H14" si="1">C5</f>
         <v>0.14414720019698099</v>
       </c>
       <c r="D14">
-        <f>D5</f>
+        <f t="shared" si="1"/>
         <v>0.219086600027978</v>
       </c>
       <c r="E14">
-        <f>E5</f>
+        <f t="shared" si="1"/>
         <v>0.28549560004472702</v>
       </c>
       <c r="F14">
-        <f>F5</f>
+        <f t="shared" si="1"/>
         <v>0.43346120005846001</v>
       </c>
       <c r="G14">
-        <f>G5</f>
+        <f t="shared" si="1"/>
         <v>0.38775120000541202</v>
       </c>
       <c r="H14">
-        <f>H5</f>
+        <f t="shared" si="1"/>
         <v>0.50452479989826604</v>
       </c>
     </row>
@@ -4860,31 +4932,31 @@
         <v>5</v>
       </c>
       <c r="B15">
-        <f>B7</f>
+        <f t="shared" ref="B15:H15" si="2">B7</f>
         <v>5.1294000096619101E-2</v>
       </c>
       <c r="C15">
-        <f>C7</f>
+        <f t="shared" si="2"/>
         <v>9.0638800017535603E-2</v>
       </c>
       <c r="D15">
-        <f>D7</f>
+        <f t="shared" si="2"/>
         <v>0.13553259998559899</v>
       </c>
       <c r="E15">
-        <f>E7</f>
+        <f t="shared" si="2"/>
         <v>0.17083979986608</v>
       </c>
       <c r="F15">
-        <f>F7</f>
+        <f t="shared" si="2"/>
         <v>0.308593000039458</v>
       </c>
       <c r="G15">
-        <f>G7</f>
+        <f t="shared" si="2"/>
         <v>0.226770599983632</v>
       </c>
       <c r="H15">
-        <f>H7</f>
+        <f t="shared" si="2"/>
         <v>0.26551260013878297</v>
       </c>
     </row>
@@ -4920,23 +4992,23 @@
         <v>-0.82028279509571189</v>
       </c>
       <c r="C21">
-        <f t="shared" ref="C21:G21" si="1">LOG(C12)</f>
+        <f t="shared" ref="C21:G21" si="3">LOG(C12)</f>
         <v>-0.7023769092193799</v>
       </c>
       <c r="D21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.61978731061802872</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.55199127506275425</v>
       </c>
       <c r="F21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.42697723379865204</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.4619400326652322</v>
       </c>
       <c r="H21">
@@ -4953,27 +5025,27 @@
         <v>-0.84029027078951612</v>
       </c>
       <c r="C22">
-        <f t="shared" ref="B22:H22" si="2">LOG(C13)</f>
+        <f t="shared" ref="C22:H22" si="4">LOG(C13)</f>
         <v>-0.6124685168411389</v>
       </c>
       <c r="D22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.20305979259749532</v>
       </c>
       <c r="E22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-3.5113005890800207E-2</v>
       </c>
       <c r="F22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.9048523388590488E-2</v>
       </c>
       <c r="G22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.17312219796485603</v>
       </c>
       <c r="H22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.19242705150086423</v>
       </c>
     </row>
@@ -4986,27 +5058,27 @@
         <v>-1.0831430025291222</v>
       </c>
       <c r="C23">
-        <f>LOG(C14)</f>
+        <f t="shared" ref="C23:H24" si="5">LOG(C14)</f>
         <v>-0.84119378859183458</v>
       </c>
       <c r="D23">
-        <f>LOG(D14)</f>
+        <f t="shared" si="5"/>
         <v>-0.65938418433739132</v>
       </c>
       <c r="E23">
-        <f>LOG(E14)</f>
+        <f t="shared" si="5"/>
         <v>-0.5444005805565586</v>
       </c>
       <c r="F23">
-        <f>LOG(F14)</f>
+        <f t="shared" si="5"/>
         <v>-0.36304977097820051</v>
       </c>
       <c r="G23">
-        <f>LOG(G14)</f>
+        <f t="shared" si="5"/>
         <v>-0.41144684946555726</v>
       </c>
       <c r="H23">
-        <f>LOG(H14)</f>
+        <f t="shared" si="5"/>
         <v>-0.29711748117285142</v>
       </c>
     </row>
@@ -5019,27 +5091,27 @@
         <v>-1.2899334317170585</v>
       </c>
       <c r="C24">
-        <f>LOG(C15)</f>
+        <f t="shared" si="5"/>
         <v>-1.0426858528049905</v>
       </c>
       <c r="D24">
-        <f>LOG(D15)</f>
+        <f t="shared" si="5"/>
         <v>-0.86795623031731794</v>
       </c>
       <c r="E24">
-        <f>LOG(E15)</f>
+        <f t="shared" si="5"/>
         <v>-0.76741094600843063</v>
       </c>
       <c r="F24">
-        <f>LOG(F15)</f>
+        <f t="shared" si="5"/>
         <v>-0.51061392946767303</v>
       </c>
       <c r="G24">
-        <f>LOG(G15)</f>
+        <f t="shared" si="5"/>
         <v>-0.6444132508925402</v>
       </c>
       <c r="H24">
-        <f>LOG(H15)</f>
+        <f t="shared" si="5"/>
         <v>-0.57591486425897453</v>
       </c>
     </row>
